--- a/2/Rechnerarchitektur/Aufgabe 4/Übung 4_2 - Pipeline_Vorlage.xlsx
+++ b/2/Rechnerarchitektur/Aufgabe 4/Übung 4_2 - Pipeline_Vorlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mblaich\SynologyDrive\RA_Blaich\SS22\Übungen\04_Aufgabe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tombo\HTWG\AIN\2\Rechnerarchitektur\Aufgabe 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BA7F8C-BE86-431B-893C-A3F0FB90B38B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750FEF15-764F-42C4-ADF5-C04BD973D444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pipeline" sheetId="3" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="106">
   <si>
     <t>MEM Control</t>
   </si>
@@ -387,12 +398,42 @@
   <si>
     <t>add</t>
   </si>
+  <si>
+    <t>subtract</t>
+  </si>
+  <si>
+    <t>slt</t>
+  </si>
+  <si>
+    <t>&amp;B</t>
+  </si>
+  <si>
+    <t>&amp;C</t>
+  </si>
+  <si>
+    <t>&amp;A+4*n</t>
+  </si>
+  <si>
+    <t>&amp;A[n]</t>
+  </si>
+  <si>
+    <t>&amp;B[0]</t>
+  </si>
+  <si>
+    <t>&amp;C[0]</t>
+  </si>
+  <si>
+    <t>B[0]=1</t>
+  </si>
+  <si>
+    <t>C[0]=3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +465,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -593,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,16 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -642,7 +688,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -652,7 +698,7 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,9 +714,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,19 +727,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -714,104 +756,100 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,216 +1137,216 @@
   </sheetPr>
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.86328125" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" customWidth="1"/>
+    <col min="3" max="3" width="35.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.73046875" customWidth="1"/>
     <col min="12" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="6.86328125" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" customWidth="1"/>
-    <col min="18" max="18" width="5.85546875" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" customWidth="1"/>
-    <col min="20" max="21" width="7.85546875" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.53125" customWidth="1"/>
+    <col min="18" max="18" width="5.86328125" customWidth="1"/>
+    <col min="19" max="19" width="6.86328125" customWidth="1"/>
+    <col min="20" max="21" width="7.86328125" customWidth="1"/>
+    <col min="22" max="22" width="9.265625" customWidth="1"/>
+    <col min="23" max="23" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.3984375" customWidth="1"/>
     <col min="25" max="25" width="11" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" customWidth="1"/>
+    <col min="26" max="26" width="10.59765625" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" customWidth="1"/>
+    <col min="28" max="28" width="13.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-    </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="48" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+    </row>
+    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="40"/>
+      <c r="B2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="61" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="65" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-    </row>
-    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="51" t="s">
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+    </row>
+    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="40"/>
+      <c r="B3" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="68" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="48"/>
+      <c r="P3" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="39" t="s">
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="67" t="s">
+      <c r="AA3" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="AB3" s="67"/>
-    </row>
-    <row r="4" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="19" t="s">
+      <c r="AB3" s="56"/>
+    </row>
+    <row r="4" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="41"/>
+      <c r="B4" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="42" t="s">
+      <c r="O4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="41" t="s">
+      <c r="P4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" s="42" t="s">
+      <c r="Q4" s="37" t="s">
         <v>79</v>
       </c>
       <c r="R4" s="1" t="s">
@@ -1320,18 +1358,18 @@
       <c r="T4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="U4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="V4" s="27" t="s">
+      <c r="V4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="53" t="s">
+      <c r="W4" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="40" t="s">
+      <c r="X4" s="63"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="35" t="s">
         <v>64</v>
       </c>
       <c r="AA4" s="6" t="s">
@@ -1341,43 +1379,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="D5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="23">
         <f>SIGN(16-G5)*(J5+I5*POWER(2,6)+(16-ABS(G5-16))*POWER(2,11))</f>
         <v>22656</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="12" t="s">
         <v>43</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="43">
-        <v>1</v>
+      <c r="L5" s="38">
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1394,13 +1432,13 @@
       <c r="Q5" s="7">
         <v>1</v>
       </c>
-      <c r="R5" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" s="17" t="s">
+      <c r="R5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="17" t="s">
+      <c r="T5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="U5" s="7" t="s">
@@ -1409,62 +1447,62 @@
       <c r="V5" s="7">
         <v>3</v>
       </c>
-      <c r="W5" s="44">
+      <c r="W5" s="39">
         <v>22656</v>
       </c>
-      <c r="X5" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" s="17" t="s">
+      <c r="X5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="8" t="s">
+      <c r="Z5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="7" t="s">
         <v>93</v>
       </c>
       <c r="AB5" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="23">
         <f t="shared" ref="H6:H11" si="0">SIGN(16-G6)*(J6+I6*POWER(2,6)+(16-ABS(G6-16))*POWER(2,11))</f>
         <v>30752</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="15" t="s">
+      <c r="I6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>50</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L6" s="43">
-        <v>1</v>
+      <c r="L6" s="38">
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1476,582 +1514,692 @@
         <v>0</v>
       </c>
       <c r="P6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="7">
         <v>1</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="U6" s="8" t="s">
-        <v>93</v>
+      <c r="U6" s="7">
+        <v>12</v>
       </c>
       <c r="V6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="W6" s="44">
+      <c r="W6" s="39">
         <v>30752</v>
       </c>
-      <c r="X6" s="17" t="s">
+      <c r="X6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="Y6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB6" s="8" t="s">
+      <c r="Y6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="26">
+      <c r="G7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="15" t="s">
+      <c r="I7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>1</v>
+      </c>
+      <c r="R7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="S7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="T7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7" s="7"/>
+      <c r="T7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="V7" s="7"/>
-      <c r="W7" s="44">
-        <v>0</v>
-      </c>
-      <c r="X7" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y7" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="8"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="W7" s="39">
+        <v>0</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="26">
+      <c r="G8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="15" t="s">
+      <c r="I8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>1</v>
+      </c>
+      <c r="R8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="S8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="T8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="7"/>
+      <c r="T8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="V8" s="7"/>
-      <c r="W8" s="44">
-        <v>0</v>
-      </c>
-      <c r="X8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
+      <c r="W8" s="39">
+        <v>0</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="AB8" s="7"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="26">
+      <c r="G9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="15" t="s">
+      <c r="I9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="15" t="s">
+      <c r="K9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="S9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="T9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="44">
-        <v>1</v>
-      </c>
-      <c r="X9" s="17" t="s">
+      <c r="T9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="W9" s="39">
+        <v>1</v>
+      </c>
+      <c r="X9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="Y9" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="26">
+      <c r="D10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>43</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="44">
-        <v>0</v>
-      </c>
-      <c r="X10" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y10" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="W10" s="39">
+        <v>0</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="23">
         <f t="shared" si="0"/>
         <v>22570</v>
       </c>
-      <c r="I11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="15" t="s">
+      <c r="I11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="15" t="s">
+      <c r="K11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>1</v>
+      </c>
+      <c r="R11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="15" t="s">
+      <c r="S11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="T11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="44">
+      <c r="U11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="W11" s="39">
         <v>22570</v>
       </c>
-      <c r="X11" s="17" t="s">
+      <c r="X11" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="Y11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
+      <c r="Y11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A14" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-    </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="48" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+    </row>
+    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="40"/>
+      <c r="B15" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="56" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="66" t="s">
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="51" t="s">
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A16" s="40"/>
+      <c r="B16" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="74"/>
-      <c r="M16" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="N16" s="60"/>
-      <c r="O16" s="68" t="s">
+      <c r="K16" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="49"/>
+      <c r="M16" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="58"/>
+      <c r="O16" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="67" t="s">
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67" t="s">
+      <c r="T16" s="56"/>
+      <c r="U16" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-    </row>
-    <row r="17" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="19" t="s">
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+    </row>
+    <row r="17" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="41"/>
+      <c r="B17" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="6" t="s">
         <v>76</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="6" t="s">
         <v>78</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -2084,25 +2232,25 @@
       <c r="W17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -2116,47 +2264,47 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>2</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="25" t="str">
+      <c r="D19" s="22" t="str">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="E19" s="25" t="str">
+      <c r="E19" s="22" t="str">
         <f t="shared" ref="E19:J19" si="1">E5</f>
         <v>0</v>
       </c>
-      <c r="F19" s="25" t="str">
+      <c r="F19" s="22" t="str">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="G19" s="25" t="str">
+      <c r="G19" s="22" t="str">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="22">
         <f t="shared" si="1"/>
         <v>22656</v>
       </c>
-      <c r="I19" s="25" t="str">
+      <c r="I19" s="22" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J19" s="25" t="str">
+      <c r="J19" s="22" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2184,532 +2332,679 @@
       <c r="R19" s="7">
         <v>0</v>
       </c>
-      <c r="S19" s="43">
+      <c r="S19" s="38">
         <v>0</v>
       </c>
       <c r="T19" s="7">
         <v>0</v>
       </c>
-      <c r="U19" s="8" t="s">
+      <c r="U19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19" s="38">
         <v>0</v>
       </c>
       <c r="W19" s="7">
         <v>1</v>
       </c>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>3</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="25" t="str">
+      <c r="D20" s="22" t="str">
         <f t="shared" ref="D20:J25" si="2">D6</f>
         <v>0</v>
       </c>
-      <c r="E20" s="25" t="str">
+      <c r="E20" s="22" t="str">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F20" s="25" t="str">
+      <c r="F20" s="22" t="str">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="str">
+      <c r="G20" s="22" t="str">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="22">
         <f t="shared" si="2"/>
         <v>30752</v>
       </c>
-      <c r="I20" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="25" t="str">
+      <c r="I20" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="22" t="str">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0</v>
+      </c>
+      <c r="S20" s="7">
+        <v>1</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="V20" s="38">
+        <v>0</v>
+      </c>
+      <c r="W20" s="7">
+        <v>0</v>
+      </c>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="25" t="str">
+      <c r="D21" s="22" t="str">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="E21" s="25" t="str">
+      <c r="E21" s="22" t="str">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="F21" s="25" t="str">
+      <c r="F21" s="22" t="str">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G21" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="G21" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1</v>
+      </c>
       <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P21" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0</v>
+      </c>
+      <c r="U21" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="V21" s="7">
+        <v>1</v>
+      </c>
+      <c r="W21" s="7">
+        <v>1</v>
+      </c>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>5</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="25" t="str">
+      <c r="D22" s="22" t="str">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="E22" s="25" t="str">
+      <c r="E22" s="22" t="str">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="F22" s="25" t="str">
+      <c r="F22" s="22" t="str">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G22" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+      <c r="G22" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1</v>
+      </c>
       <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P22" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0</v>
+      </c>
+      <c r="S22" s="7">
+        <v>0</v>
+      </c>
+      <c r="T22" s="7">
+        <v>0</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="V22" s="7">
+        <v>1</v>
+      </c>
+      <c r="W22" s="7">
+        <v>1</v>
+      </c>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>6</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="25" t="str">
+      <c r="D23" s="22" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E23" s="25" t="str">
+      <c r="E23" s="22" t="str">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F23" s="25" t="str">
+      <c r="F23" s="22" t="str">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G23" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I23" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G23" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>-12</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0</v>
+      </c>
+      <c r="S23" s="7">
+        <v>0</v>
+      </c>
+      <c r="T23" s="7">
+        <v>0</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="V23" s="7">
+        <v>0</v>
+      </c>
+      <c r="W23" s="7">
+        <v>1</v>
+      </c>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>7</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
+      <c r="D24" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0</v>
+      </c>
+      <c r="S24" s="7">
+        <v>0</v>
+      </c>
+      <c r="T24" s="7">
+        <v>0</v>
+      </c>
       <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V24" s="7">
+        <v>0</v>
+      </c>
+      <c r="W24" s="7">
+        <v>0</v>
+      </c>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>8</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="25" t="str">
+      <c r="D25" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="22" t="str">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="25" t="str">
+      <c r="G25" s="22" t="str">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="22">
         <f t="shared" si="2"/>
         <v>22570</v>
       </c>
-      <c r="I25" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="25" t="str">
+      <c r="I25" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="22" t="str">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="70" t="s">
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1</v>
+      </c>
+      <c r="O25" s="7">
+        <v>1</v>
+      </c>
+      <c r="P25" s="7">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>1</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0</v>
+      </c>
+      <c r="S25" s="7">
+        <v>0</v>
+      </c>
+      <c r="T25" s="7">
+        <v>2</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="V25" s="7">
+        <v>1</v>
+      </c>
+      <c r="W25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A26" s="29"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A27" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-    </row>
-    <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="48" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+    </row>
+    <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="40"/>
+      <c r="B28" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="76" t="s">
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="51" t="s">
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A29" s="40"/>
+      <c r="B29" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="21" t="s">
+      <c r="C29" s="47"/>
+      <c r="D29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="73" t="s">
+      <c r="K29" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="74"/>
-      <c r="M29" s="68" t="s">
+      <c r="L29" s="49"/>
+      <c r="M29" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="N29" s="69"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="67" t="s">
+      <c r="N29" s="51"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-    </row>
-    <row r="30" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="19" t="s">
+      <c r="Q29" s="56"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+    </row>
+    <row r="30" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="41"/>
+      <c r="B30" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="10" t="s">
         <v>36</v>
       </c>
       <c r="K30" s="3" t="s">
@@ -2727,37 +3022,37 @@
       <c r="O30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P30" s="9" t="s">
+      <c r="P30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>1</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -2765,19 +3060,19 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>2</v>
       </c>
@@ -2797,449 +3092,563 @@
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>3</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="25" t="str">
+      <c r="D33" s="22" t="str">
         <f>D19</f>
         <v>0</v>
       </c>
-      <c r="E33" s="25" t="str">
+      <c r="E33" s="22" t="str">
         <f t="shared" ref="E33:J33" si="3">E19</f>
         <v>0</v>
       </c>
-      <c r="F33" s="25" t="str">
+      <c r="F33" s="22" t="str">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="G33" s="25" t="str">
+      <c r="G33" s="22" t="str">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="22">
         <f t="shared" si="3"/>
         <v>22656</v>
       </c>
-      <c r="I33" s="25" t="str">
+      <c r="I33" s="22" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J33" s="25" t="str">
+      <c r="J33" s="22" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33" s="7">
+        <v>1</v>
+      </c>
+      <c r="M33" s="7">
+        <v>11</v>
+      </c>
+      <c r="N33" s="7">
+        <v>12</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0</v>
+      </c>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>4</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="25" t="str">
+      <c r="D34" s="22" t="str">
         <f t="shared" ref="D34:D39" si="4">D20</f>
         <v>0</v>
       </c>
-      <c r="E34" s="25" t="str">
+      <c r="E34" s="22" t="str">
         <f t="shared" ref="E34:J34" si="5">E20</f>
         <v>11</v>
       </c>
-      <c r="F34" s="25" t="str">
+      <c r="F34" s="22" t="str">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="G34" s="25" t="str">
+      <c r="G34" s="22" t="str">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="22">
         <f t="shared" si="5"/>
         <v>30752</v>
       </c>
-      <c r="I34" s="25" t="str">
+      <c r="I34" s="22" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J34" s="25" t="str">
+      <c r="J34" s="22" t="str">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="K34" s="7">
+        <v>1</v>
+      </c>
+      <c r="L34" s="7">
+        <v>1</v>
+      </c>
+      <c r="M34" s="7">
+        <v>15</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>0</v>
+      </c>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>5</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="25" t="str">
+      <c r="D35" s="22" t="str">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="E35" s="25" t="str">
+      <c r="E35" s="22" t="str">
         <f t="shared" ref="E35:J35" si="6">E21</f>
         <v>17</v>
       </c>
-      <c r="F35" s="25" t="str">
+      <c r="F35" s="22" t="str">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="G35" s="25" t="str">
+      <c r="G35" s="22" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="22">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I35" s="25" t="str">
+      <c r="I35" s="22" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J35" s="25" t="str">
+      <c r="J35" s="22" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <v>1</v>
+      </c>
+      <c r="M35" s="7">
+        <v>9</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O35" s="7">
+        <v>1</v>
+      </c>
+      <c r="P35" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
         <v>6</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="25" t="str">
+      <c r="D36" s="22" t="str">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="E36" s="25" t="str">
+      <c r="E36" s="22" t="str">
         <f t="shared" ref="E36:J36" si="7">E22</f>
         <v>18</v>
       </c>
-      <c r="F36" s="25" t="str">
+      <c r="F36" s="22" t="str">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="G36" s="25" t="str">
+      <c r="G36" s="22" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I36" s="25" t="str">
+      <c r="I36" s="22" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J36" s="25" t="str">
+      <c r="J36" s="22" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <v>1</v>
+      </c>
+      <c r="M36" s="7">
+        <v>10</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="O36" s="7">
+        <v>3</v>
+      </c>
+      <c r="P36" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>0</v>
+      </c>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
         <v>7</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="25" t="str">
+      <c r="D37" s="22" t="str">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E37" s="25" t="str">
+      <c r="E37" s="22" t="str">
         <f t="shared" ref="E37:J37" si="8">E23</f>
         <v>16</v>
       </c>
-      <c r="F37" s="25" t="str">
+      <c r="F37" s="22" t="str">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="G37" s="25" t="str">
+      <c r="G37" s="22" t="str">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="22">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I37" s="25" t="str">
+      <c r="I37" s="22" t="str">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J37" s="25" t="str">
+      <c r="J37" s="22" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>-12</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>0</v>
+      </c>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
         <v>8</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="25" t="str">
+      <c r="D38" s="22" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E38" s="25" t="str">
+      <c r="E38" s="22" t="str">
         <f t="shared" ref="E38:J38" si="9">E24</f>
         <v>0</v>
       </c>
-      <c r="F38" s="25" t="str">
+      <c r="F38" s="22" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G38" s="25" t="str">
+      <c r="G38" s="22" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I38" s="25" t="str">
+      <c r="I38" s="22" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J38" s="25" t="str">
+      <c r="J38" s="22" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="K38" s="7">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P38" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>0</v>
+      </c>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
         <v>9</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="25" t="str">
+      <c r="D39" s="22" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E39" s="25" t="str">
+      <c r="E39" s="22" t="str">
         <f t="shared" ref="E39:J39" si="10">E25</f>
         <v>9</v>
       </c>
-      <c r="F39" s="25" t="str">
+      <c r="F39" s="22" t="str">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="G39" s="25" t="str">
+      <c r="G39" s="22" t="str">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="22">
         <f t="shared" si="10"/>
         <v>22570</v>
       </c>
-      <c r="I39" s="25" t="str">
+      <c r="I39" s="22" t="str">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J39" s="25" t="str">
+      <c r="J39" s="22" t="str">
         <f t="shared" si="10"/>
         <v>42</v>
       </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
+      <c r="K39" s="7">
+        <v>1</v>
+      </c>
+      <c r="L39" s="7">
+        <v>1</v>
+      </c>
+      <c r="M39" s="7">
+        <v>11</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>0</v>
+      </c>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A40" s="24"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="B14:W14"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K2:Y2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="R3:Y3"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:AB1"/>
@@ -3256,22 +3665,6 @@
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="R3:Y3"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="B14:W14"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K2:Y2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>

--- a/2/Rechnerarchitektur/Aufgabe 4/Übung 4_2 - Pipeline_Vorlage.xlsx
+++ b/2/Rechnerarchitektur/Aufgabe 4/Übung 4_2 - Pipeline_Vorlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tombo\HTWG\AIN\2\Rechnerarchitektur\Aufgabe 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750FEF15-764F-42C4-ADF5-C04BD973D444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6494980D-86B6-40C9-ADD2-DC2FDFABE94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pipeline" sheetId="3" r:id="rId1"/>

--- a/2/Rechnerarchitektur/Aufgabe 4/Übung 4_2 - Pipeline_Vorlage.xlsx
+++ b/2/Rechnerarchitektur/Aufgabe 4/Übung 4_2 - Pipeline_Vorlage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tombo\HTWG\AIN\2\Rechnerarchitektur\Aufgabe 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6494980D-86B6-40C9-ADD2-DC2FDFABE94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B68057-2A75-4E48-B22D-3CAF249F8F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="108">
   <si>
     <t>MEM Control</t>
   </si>
@@ -427,6 +427,12 @@
   </si>
   <si>
     <t>C[0]=3</t>
+  </si>
+  <si>
+    <t>$t1</t>
+  </si>
+  <si>
+    <t>$t2</t>
   </si>
 </sst>
 </file>
@@ -756,6 +762,81 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,91 +846,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,8 +1143,8 @@
   </sheetPr>
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1172,41 +1178,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="40"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="43" t="s">
         <v>30</v>
       </c>
@@ -1218,31 +1224,31 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="45"/>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="59" t="s">
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="40"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="46" t="s">
         <v>67</v>
       </c>
@@ -1268,39 +1274,39 @@
       <c r="J3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="50" t="s">
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="59"/>
+      <c r="P3" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
       <c r="Z3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="56" t="s">
+      <c r="AA3" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="AB3" s="56"/>
+      <c r="AB3" s="62"/>
     </row>
     <row r="4" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="41"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="16" t="s">
         <v>69</v>
       </c>
@@ -1364,11 +1370,11 @@
       <c r="V4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="62" t="s">
+      <c r="W4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="64"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="50"/>
       <c r="Z4" s="35" t="s">
         <v>64</v>
       </c>
@@ -1585,7 +1591,7 @@
       <c r="J7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="71" t="s">
+      <c r="K7" s="41" t="s">
         <v>95</v>
       </c>
       <c r="L7" s="7">
@@ -1618,7 +1624,9 @@
       <c r="U7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="V7" s="7"/>
+      <c r="V7" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="W7" s="39">
         <v>0</v>
       </c>
@@ -1634,7 +1642,9 @@
       <c r="AA7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" s="7"/>
+      <c r="AB7" s="7" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
@@ -1701,7 +1711,9 @@
       <c r="U8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="V8" s="7"/>
+      <c r="V8" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="W8" s="39">
         <v>0</v>
       </c>
@@ -1717,7 +1729,9 @@
       <c r="AA8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AB8" s="7"/>
+      <c r="AB8" s="7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
@@ -2039,33 +2053,33 @@
       <c r="AB13" s="8"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
@@ -2073,7 +2087,7 @@
       <c r="AB14" s="8"/>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="40"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="43" t="s">
         <v>71</v>
       </c>
@@ -2085,23 +2099,23 @@
       <c r="H15" s="44"/>
       <c r="I15" s="44"/>
       <c r="J15" s="45"/>
-      <c r="K15" s="54" t="s">
+      <c r="K15" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="60" t="s">
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
@@ -2109,7 +2123,7 @@
       <c r="AB15" s="8"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A16" s="40"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="46" t="s">
         <v>67</v>
       </c>
@@ -2135,29 +2149,29 @@
       <c r="J16" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="49"/>
-      <c r="M16" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="N16" s="58"/>
-      <c r="O16" s="50" t="s">
+      <c r="K16" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="68"/>
+      <c r="M16" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="55"/>
+      <c r="O16" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="56" t="s">
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56" t="s">
+      <c r="T16" s="62"/>
+      <c r="U16" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
@@ -2165,7 +2179,7 @@
       <c r="AB16" s="8"/>
     </row>
     <row r="17" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="41"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="16" t="s">
         <v>69</v>
       </c>
@@ -2349,7 +2363,7 @@
       </c>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
-      <c r="Z19" s="70"/>
+      <c r="Z19" s="40"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
     </row>
@@ -2486,7 +2500,9 @@
       <c r="N21" s="7">
         <v>1</v>
       </c>
-      <c r="O21" s="7"/>
+      <c r="O21" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="P21" s="7">
         <v>9</v>
       </c>
@@ -2502,7 +2518,7 @@
       <c r="T21" s="7">
         <v>0</v>
       </c>
-      <c r="U21" s="71" t="s">
+      <c r="U21" s="41" t="s">
         <v>95</v>
       </c>
       <c r="V21" s="7">
@@ -2567,7 +2583,9 @@
       <c r="N22" s="7">
         <v>1</v>
       </c>
-      <c r="O22" s="7"/>
+      <c r="O22" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="P22" s="7">
         <v>10</v>
       </c>
@@ -2865,33 +2883,33 @@
       <c r="W26" s="33"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
+      <c r="T27" s="7"/>
     </row>
     <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="40"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="43" t="s">
         <v>72</v>
       </c>
@@ -2903,20 +2921,20 @@
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
       <c r="J28" s="45"/>
-      <c r="K28" s="53" t="s">
+      <c r="K28" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="55"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="71"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
+      <c r="T28" s="7"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
@@ -2927,7 +2945,7 @@
       <c r="AB28" s="8"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A29" s="40"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="46" t="s">
         <v>67</v>
       </c>
@@ -2953,19 +2971,19 @@
       <c r="J29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="48" t="s">
+      <c r="K29" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="49"/>
-      <c r="M29" s="50" t="s">
+      <c r="L29" s="68"/>
+      <c r="M29" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="N29" s="51"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="56" t="s">
+      <c r="N29" s="64"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="56"/>
+      <c r="Q29" s="62"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
@@ -2979,7 +2997,7 @@
       <c r="AB29" s="8"/>
     </row>
     <row r="30" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="41"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="16" t="s">
         <v>69</v>
       </c>
@@ -3633,22 +3651,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="B14:W14"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K2:Y2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="R3:Y3"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:AB1"/>
@@ -3665,6 +3667,22 @@
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:N16"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="B14:W14"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K2:Y2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>

--- a/2/Rechnerarchitektur/Aufgabe 4/Übung 4_2 - Pipeline_Vorlage.xlsx
+++ b/2/Rechnerarchitektur/Aufgabe 4/Übung 4_2 - Pipeline_Vorlage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tombo\HTWG\AIN\2\Rechnerarchitektur\Aufgabe 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B68057-2A75-4E48-B22D-3CAF249F8F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48A0DFE-03B5-4093-8F55-5C536EDFBE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="110">
   <si>
     <t>MEM Control</t>
   </si>
@@ -434,12 +434,18 @@
   <si>
     <t>$t2</t>
   </si>
+  <si>
+    <t>neu</t>
+  </si>
+  <si>
+    <t>übernommene Werte</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,15 +488,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,6 +553,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -765,11 +782,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -786,6 +806,48 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -795,21 +857,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,43 +872,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1143,8 +1178,8 @@
   </sheetPr>
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15:AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1178,69 +1213,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="65"/>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="56" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
       <c r="Z2" s="60" t="s">
         <v>5</v>
       </c>
@@ -1248,11 +1283,11 @@
       <c r="AB2" s="61"/>
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="65"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
@@ -1274,39 +1309,39 @@
       <c r="J3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="63" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="49"/>
+      <c r="P3" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
       <c r="Z3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="62" t="s">
+      <c r="AA3" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="AB3" s="62"/>
+      <c r="AB3" s="57"/>
     </row>
     <row r="4" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="66"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="16" t="s">
         <v>69</v>
       </c>
@@ -1370,11 +1405,11 @@
       <c r="V4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="50"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="65"/>
       <c r="Z4" s="35" t="s">
         <v>64</v>
       </c>
@@ -1591,25 +1626,25 @@
       <c r="J7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
+      <c r="L7" s="71">
+        <v>1</v>
+      </c>
+      <c r="M7" s="71">
+        <v>1</v>
+      </c>
+      <c r="N7" s="71">
+        <v>1</v>
+      </c>
+      <c r="O7" s="71">
+        <v>0</v>
+      </c>
+      <c r="P7" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="71">
         <v>1</v>
       </c>
       <c r="R7" s="12" t="s">
@@ -1621,10 +1656,10 @@
       <c r="T7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="72" t="s">
         <v>106</v>
       </c>
       <c r="W7" s="39">
@@ -1636,13 +1671,13 @@
       <c r="Y7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="Z7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="7" t="s">
+      <c r="Z7" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" s="7" t="s">
+      <c r="AB7" s="72" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1678,25 +1713,25 @@
       <c r="J8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="7">
-        <v>1</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
+      <c r="L8" s="71">
+        <v>1</v>
+      </c>
+      <c r="M8" s="71">
+        <v>1</v>
+      </c>
+      <c r="N8" s="71">
+        <v>1</v>
+      </c>
+      <c r="O8" s="71">
+        <v>0</v>
+      </c>
+      <c r="P8" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="71">
         <v>1</v>
       </c>
       <c r="R8" s="12" t="s">
@@ -1708,10 +1743,10 @@
       <c r="T8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="U8" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="V8" s="72" t="s">
         <v>107</v>
       </c>
       <c r="W8" s="39">
@@ -1723,13 +1758,13 @@
       <c r="Y8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="Z8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="7" t="s">
+      <c r="Z8" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="AB8" s="7" t="s">
+      <c r="AB8" s="72" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1765,25 +1800,25 @@
       <c r="J9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="7">
+      <c r="L9" s="71">
+        <v>0</v>
+      </c>
+      <c r="M9" s="71">
+        <v>0</v>
+      </c>
+      <c r="N9" s="71">
+        <v>0</v>
+      </c>
+      <c r="O9" s="71">
+        <v>0</v>
+      </c>
+      <c r="P9" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="71">
         <v>0</v>
       </c>
       <c r="R9" s="12" t="s">
@@ -1795,10 +1830,10 @@
       <c r="T9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="U9" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="V9" s="72" t="s">
         <v>100</v>
       </c>
       <c r="W9" s="39">
@@ -1810,13 +1845,13 @@
       <c r="Y9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="Z9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="7" t="s">
+      <c r="Z9" s="72">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="AB9" s="7" t="s">
+      <c r="AB9" s="72" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1852,23 +1887,23 @@
       <c r="J10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
+      <c r="K10" s="71"/>
+      <c r="L10" s="71">
+        <v>0</v>
+      </c>
+      <c r="M10" s="71">
+        <v>0</v>
+      </c>
+      <c r="N10" s="71">
+        <v>0</v>
+      </c>
+      <c r="O10" s="71">
+        <v>0</v>
+      </c>
+      <c r="P10" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="71">
         <v>0</v>
       </c>
       <c r="R10" s="12" t="s">
@@ -1880,10 +1915,10 @@
       <c r="T10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="72" t="s">
         <v>93</v>
       </c>
       <c r="W10" s="39">
@@ -1895,13 +1930,13 @@
       <c r="Y10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="Z10" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="7" t="s">
+      <c r="Z10" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="AB10" s="7" t="s">
+      <c r="AB10" s="72" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1937,25 +1972,25 @@
       <c r="J11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="L11" s="7">
-        <v>1</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="7">
+      <c r="L11" s="71">
+        <v>1</v>
+      </c>
+      <c r="M11" s="71">
+        <v>0</v>
+      </c>
+      <c r="N11" s="71">
+        <v>0</v>
+      </c>
+      <c r="O11" s="71">
+        <v>0</v>
+      </c>
+      <c r="P11" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="71">
         <v>1</v>
       </c>
       <c r="R11" s="12" t="s">
@@ -1967,10 +2002,10 @@
       <c r="T11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="U11" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="72" t="s">
         <v>105</v>
       </c>
       <c r="W11" s="39">
@@ -1982,13 +2017,13 @@
       <c r="Y11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="Z11" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="7" t="s">
+      <c r="Z11" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="AB11" s="7" t="s">
+      <c r="AB11" s="72" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2053,33 +2088,33 @@
       <c r="AB13" s="8"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
@@ -2087,28 +2122,28 @@
       <c r="AB14" s="8"/>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="65"/>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="51" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
       <c r="S15" s="61" t="s">
         <v>3</v>
       </c>
@@ -2123,11 +2158,11 @@
       <c r="AB15" s="8"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A16" s="65"/>
-      <c r="B16" s="46" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="47"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="18" t="s">
         <v>32</v>
       </c>
@@ -2149,29 +2184,29 @@
       <c r="J16" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="68"/>
-      <c r="M16" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="N16" s="55"/>
-      <c r="O16" s="63" t="s">
+      <c r="K16" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="50"/>
+      <c r="M16" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="59"/>
+      <c r="O16" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="62" t="s">
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62" t="s">
+      <c r="T16" s="57"/>
+      <c r="U16" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
@@ -2179,7 +2214,7 @@
       <c r="AB16" s="8"/>
     </row>
     <row r="17" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="66"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="16" t="s">
         <v>69</v>
       </c>
@@ -2488,43 +2523,43 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="7">
-        <v>1</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="K21" s="73">
+        <v>1</v>
+      </c>
+      <c r="L21" s="73">
+        <v>0</v>
+      </c>
+      <c r="M21" s="73">
+        <v>0</v>
+      </c>
+      <c r="N21" s="73">
+        <v>1</v>
+      </c>
+      <c r="O21" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="72">
         <v>9</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="R21" s="7">
-        <v>0</v>
-      </c>
-      <c r="S21" s="7">
-        <v>0</v>
-      </c>
-      <c r="T21" s="7">
-        <v>0</v>
-      </c>
-      <c r="U21" s="41" t="s">
+      <c r="R21" s="72">
+        <v>0</v>
+      </c>
+      <c r="S21" s="72">
+        <v>0</v>
+      </c>
+      <c r="T21" s="72">
+        <v>0</v>
+      </c>
+      <c r="U21" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="V21" s="7">
-        <v>1</v>
-      </c>
-      <c r="W21" s="7">
+      <c r="V21" s="74">
+        <v>1</v>
+      </c>
+      <c r="W21" s="74">
         <v>1</v>
       </c>
       <c r="X21" s="8"/>
@@ -2571,43 +2606,43 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="7">
-        <v>1</v>
-      </c>
-      <c r="L22" s="7">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="K22" s="73">
+        <v>1</v>
+      </c>
+      <c r="L22" s="73">
+        <v>0</v>
+      </c>
+      <c r="M22" s="73">
+        <v>0</v>
+      </c>
+      <c r="N22" s="73">
+        <v>1</v>
+      </c>
+      <c r="O22" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="72">
         <v>10</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="Q22" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="R22" s="7">
-        <v>0</v>
-      </c>
-      <c r="S22" s="7">
-        <v>0</v>
-      </c>
-      <c r="T22" s="7">
-        <v>0</v>
-      </c>
-      <c r="U22" s="7" t="s">
+      <c r="R22" s="72">
+        <v>0</v>
+      </c>
+      <c r="S22" s="72">
+        <v>0</v>
+      </c>
+      <c r="T22" s="72">
+        <v>0</v>
+      </c>
+      <c r="U22" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="V22" s="7">
-        <v>1</v>
-      </c>
-      <c r="W22" s="7">
+      <c r="V22" s="74">
+        <v>1</v>
+      </c>
+      <c r="W22" s="74">
         <v>1</v>
       </c>
       <c r="X22" s="8"/>
@@ -2654,43 +2689,43 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K23" s="7">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7">
-        <v>0</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="K23" s="73">
+        <v>0</v>
+      </c>
+      <c r="L23" s="73">
+        <v>0</v>
+      </c>
+      <c r="M23" s="73">
+        <v>1</v>
+      </c>
+      <c r="N23" s="73">
+        <v>0</v>
+      </c>
+      <c r="O23" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="P23" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="7">
+      <c r="P23" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="72">
         <v>-12</v>
       </c>
-      <c r="R23" s="7">
-        <v>0</v>
-      </c>
-      <c r="S23" s="7">
-        <v>0</v>
-      </c>
-      <c r="T23" s="7">
-        <v>0</v>
-      </c>
-      <c r="U23" s="7" t="s">
+      <c r="R23" s="72">
+        <v>0</v>
+      </c>
+      <c r="S23" s="72">
+        <v>0</v>
+      </c>
+      <c r="T23" s="72">
+        <v>0</v>
+      </c>
+      <c r="U23" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="V23" s="7">
-        <v>0</v>
-      </c>
-      <c r="W23" s="7">
+      <c r="V23" s="74">
+        <v>0</v>
+      </c>
+      <c r="W23" s="74">
         <v>1</v>
       </c>
       <c r="X23" s="8"/>
@@ -2737,41 +2772,41 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="7">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7">
-        <v>0</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="K24" s="73">
+        <v>0</v>
+      </c>
+      <c r="L24" s="73">
+        <v>0</v>
+      </c>
+      <c r="M24" s="73">
+        <v>0</v>
+      </c>
+      <c r="N24" s="73">
+        <v>0</v>
+      </c>
+      <c r="O24" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="P24" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="7" t="s">
+      <c r="P24" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="R24" s="7">
-        <v>0</v>
-      </c>
-      <c r="S24" s="7">
-        <v>0</v>
-      </c>
-      <c r="T24" s="7">
-        <v>0</v>
-      </c>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7">
-        <v>0</v>
-      </c>
-      <c r="W24" s="7">
+      <c r="R24" s="72">
+        <v>0</v>
+      </c>
+      <c r="S24" s="72">
+        <v>0</v>
+      </c>
+      <c r="T24" s="72">
+        <v>0</v>
+      </c>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74">
+        <v>0</v>
+      </c>
+      <c r="W24" s="74">
         <v>0</v>
       </c>
       <c r="X24" s="8"/>
@@ -2817,43 +2852,43 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="K25" s="7">
-        <v>0</v>
-      </c>
-      <c r="L25" s="7">
-        <v>0</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1</v>
-      </c>
-      <c r="O25" s="7">
-        <v>1</v>
-      </c>
-      <c r="P25" s="7">
+      <c r="K25" s="73">
+        <v>0</v>
+      </c>
+      <c r="L25" s="73">
+        <v>0</v>
+      </c>
+      <c r="M25" s="73">
+        <v>1</v>
+      </c>
+      <c r="N25" s="73">
+        <v>1</v>
+      </c>
+      <c r="O25" s="77">
+        <v>1</v>
+      </c>
+      <c r="P25" s="72">
         <v>11</v>
       </c>
-      <c r="Q25" s="7">
-        <v>1</v>
-      </c>
-      <c r="R25" s="7">
-        <v>0</v>
-      </c>
-      <c r="S25" s="7">
-        <v>0</v>
-      </c>
-      <c r="T25" s="7">
+      <c r="Q25" s="72">
+        <v>1</v>
+      </c>
+      <c r="R25" s="72">
+        <v>0</v>
+      </c>
+      <c r="S25" s="72">
+        <v>0</v>
+      </c>
+      <c r="T25" s="72">
         <v>2</v>
       </c>
-      <c r="U25" s="7" t="s">
+      <c r="U25" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="V25" s="7">
-        <v>1</v>
-      </c>
-      <c r="W25" s="7">
+      <c r="V25" s="74">
+        <v>1</v>
+      </c>
+      <c r="W25" s="74">
         <v>0</v>
       </c>
     </row>
@@ -2883,55 +2918,55 @@
       <c r="W26" s="33"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
       <c r="T27" s="7"/>
     </row>
     <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="65"/>
-      <c r="B28" s="43" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="70" t="s">
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="71"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="56"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
       <c r="T28" s="7"/>
@@ -2945,11 +2980,11 @@
       <c r="AB28" s="8"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A29" s="65"/>
-      <c r="B29" s="46" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="47"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="18" t="s">
         <v>32</v>
       </c>
@@ -2971,19 +3006,19 @@
       <c r="J29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="59" t="s">
+      <c r="K29" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="68"/>
-      <c r="M29" s="63" t="s">
+      <c r="L29" s="50"/>
+      <c r="M29" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="N29" s="64"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="62" t="s">
+      <c r="N29" s="52"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="62"/>
+      <c r="Q29" s="57"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
@@ -2997,7 +3032,7 @@
       <c r="AB29" s="8"/>
     </row>
     <row r="30" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="66"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="16" t="s">
         <v>69</v>
       </c>
@@ -3049,9 +3084,13 @@
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
+      <c r="U30" s="75" t="s">
+        <v>108</v>
+      </c>
       <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
+      <c r="W30" s="76" t="s">
+        <v>109</v>
+      </c>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
@@ -3302,25 +3341,25 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K35" s="7">
-        <v>0</v>
-      </c>
-      <c r="L35" s="7">
-        <v>1</v>
-      </c>
-      <c r="M35" s="7">
+      <c r="K35" s="73">
+        <v>0</v>
+      </c>
+      <c r="L35" s="73">
+        <v>1</v>
+      </c>
+      <c r="M35" s="73">
         <v>9</v>
       </c>
-      <c r="N35" s="7" t="s">
+      <c r="N35" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="O35" s="7">
-        <v>1</v>
-      </c>
-      <c r="P35" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="7">
+      <c r="O35" s="72">
+        <v>1</v>
+      </c>
+      <c r="P35" s="73">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="73">
         <v>0</v>
       </c>
       <c r="R35" s="8"/>
@@ -3373,25 +3412,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K36" s="7">
-        <v>0</v>
-      </c>
-      <c r="L36" s="7">
-        <v>1</v>
-      </c>
-      <c r="M36" s="7">
+      <c r="K36" s="73">
+        <v>0</v>
+      </c>
+      <c r="L36" s="73">
+        <v>1</v>
+      </c>
+      <c r="M36" s="73">
         <v>10</v>
       </c>
-      <c r="N36" s="7" t="s">
+      <c r="N36" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="72">
         <v>3</v>
       </c>
-      <c r="P36" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="7">
+      <c r="P36" s="73">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="73">
         <v>0</v>
       </c>
       <c r="R36" s="8"/>
@@ -3444,25 +3483,25 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="K37" s="7">
-        <v>1</v>
-      </c>
-      <c r="L37" s="7">
-        <v>0</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
+      <c r="K37" s="73">
+        <v>1</v>
+      </c>
+      <c r="L37" s="73">
+        <v>0</v>
+      </c>
+      <c r="M37" s="73">
+        <v>0</v>
+      </c>
+      <c r="N37" s="73">
         <v>-12</v>
       </c>
-      <c r="O37" s="7" t="s">
+      <c r="O37" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="P37" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="7">
+      <c r="P37" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="73">
         <v>0</v>
       </c>
       <c r="R37" s="8"/>
@@ -3515,25 +3554,25 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K38" s="7">
-        <v>0</v>
-      </c>
-      <c r="L38" s="7">
-        <v>0</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7" t="s">
+      <c r="K38" s="73">
+        <v>0</v>
+      </c>
+      <c r="L38" s="73">
+        <v>0</v>
+      </c>
+      <c r="M38" s="73">
+        <v>0</v>
+      </c>
+      <c r="N38" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="O38" s="7" t="s">
+      <c r="O38" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="P38" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="7">
+      <c r="P38" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="73">
         <v>0</v>
       </c>
       <c r="R38" s="8"/>
@@ -3586,25 +3625,25 @@
         <f t="shared" si="10"/>
         <v>42</v>
       </c>
-      <c r="K39" s="7">
-        <v>1</v>
-      </c>
-      <c r="L39" s="7">
-        <v>1</v>
-      </c>
-      <c r="M39" s="7">
+      <c r="K39" s="73">
+        <v>1</v>
+      </c>
+      <c r="L39" s="73">
+        <v>1</v>
+      </c>
+      <c r="M39" s="73">
         <v>11</v>
       </c>
-      <c r="N39" s="7">
-        <v>1</v>
-      </c>
-      <c r="O39" s="7" t="s">
+      <c r="N39" s="73">
+        <v>1</v>
+      </c>
+      <c r="O39" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="P39" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="7">
+      <c r="P39" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="73">
         <v>0</v>
       </c>
       <c r="R39" s="8"/>
@@ -3651,6 +3690,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="B14:W14"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K2:Y2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="R3:Y3"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:AB1"/>
@@ -3667,22 +3722,6 @@
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="R3:Y3"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="B14:W14"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K2:Y2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
